--- a/biology/Botanique/Rhamnaceae/Rhamnaceae.xlsx
+++ b/biology/Botanique/Rhamnaceae/Rhamnaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhamnacées
 Les Rhamnaceae (Les Rhamnacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Rosales. Elle comprend près de 50 genres répartis en 900 espèces.
@@ -516,7 +528,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Rhamnos qui vient de ραμνος / ramnos, nom grec d'un arbuste à épines comme le nerprun épineux.
 </t>
@@ -547,7 +561,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tribu Ampelozizipheae
@@ -604,7 +620,7 @@
 Karwinskia Zucc.
 Krugiodendron Urb.
 Phyllogeiton (Weberb.) Herzog
-Pseudoziziphus Hauenschild[1]
+Pseudoziziphus Hauenschild
 Reynosia Griseb.
 Rhamnella Miq.
 Rhamnidium Reissek
@@ -621,11 +637,11 @@
 Chaydaia Pit. (par certains traités comme Rhamnella)
 Colubrina Rich. ex Brongn.
 Emmenosperma F.Muell. (proche de Colubrina)
-Granitites Rye[2] (proche de Alphitonia)
+Granitites Rye (proche de Alphitonia)
 Hybosperma Urb. (par certains traités comme Colubrina)
 Jaffrea H.C.Hopkins &amp; Pillon
 Lasiodiscus Hook.f.
-Schistocarpaea F.Muell.[3] (appartenant peut-être aux Colletieae)
+Schistocarpaea F.Muell. (appartenant peut-être aux Colletieae)
 </t>
         </is>
       </c>
@@ -654,9 +670,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phylogénétique moléculaire moderne recommande la classification suivante basée sur les clades des Rhamnaceae[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phylogénétique moléculaire moderne recommande la classification suivante basée sur les clades des Rhamnaceae :
 </t>
         </is>
       </c>
